--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Дмитрий</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Тестрирование</t>
+  </si>
+  <si>
+    <t>Презентация</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,9 +412,10 @@
     <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -443,9 +447,12 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,12 +478,13 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1">
-        <f>SUM(B2:K2)</f>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <f>SUM(B2:L2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,11 +509,14 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L4" si="0">SUM(B3:K3)</f>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUM(B3:L3)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,12 +537,15 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUM(B4:L4)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K4">
+  <conditionalFormatting sqref="B2:L4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -132,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,25 +397,27 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -452,7 +454,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
